--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQi0427\PycharmProjects\jspagv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A269CF-CF7C-4F77-BCC9-E7A24D5BC6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E44E7E9-6C18-4D65-A094-39F00CB5E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>order</t>
   </si>
@@ -101,18 +101,6 @@
   </si>
   <si>
     <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>M11</t>
   </si>
 </sst>
 </file>
@@ -171,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -863,19 +851,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -903,20 +889,8 @@
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -944,20 +918,8 @@
       <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -985,20 +947,8 @@
       <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="J3" s="1">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1026,20 +976,8 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1067,20 +1005,8 @@
       <c r="I5" s="1">
         <v>9</v>
       </c>
-      <c r="J5" s="1">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1108,20 +1034,8 @@
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>9</v>
-      </c>
-      <c r="M6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1149,20 +1063,8 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1190,20 +1092,8 @@
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1229,182 +1119,6 @@
         <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1">
-        <v>9</v>
-      </c>
-      <c r="M9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>7</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>9</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <v>9</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10</v>
-      </c>
-      <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQi0427\PycharmProjects\jspagv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E44E7E9-6C18-4D65-A094-39F00CB5E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27660" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
     <sheet name="Processing Time" sheetId="2" r:id="rId2"/>
     <sheet name="AGV Time" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>order</t>
   </si>
@@ -58,9 +39,30 @@
     <t>O6</t>
   </si>
   <si>
+    <t>O7</t>
+  </si>
+  <si>
     <t>J1  </t>
   </si>
   <si>
+    <t>J2  </t>
+  </si>
+  <si>
+    <t>J3  </t>
+  </si>
+  <si>
+    <t>J4  </t>
+  </si>
+  <si>
+    <t>J5  </t>
+  </si>
+  <si>
+    <t>J6  </t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t> J2  </t>
   </si>
   <si>
@@ -74,9 +76,6 @@
   </si>
   <si>
     <t> J6  </t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>M0</t>
@@ -106,8 +105,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,29 +121,358 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,9 +480,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -159,21 +735,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,26 +1051,247 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" ht="17.55" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="17.55" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" ht="17.55" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" ht="17.55" customHeight="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" ht="17.55" customHeight="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" ht="17.55" customHeight="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -475,162 +1316,162 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
       <c r="G2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
         <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
         <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
         <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -638,261 +1479,58 @@
       <c r="K7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.09166666666667" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="1"/>
+    <col min="10" max="16384" width="9.09166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="17.55" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="17.55" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -919,9 +1557,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="17.55" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -948,9 +1586,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="17.55" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>6</v>
@@ -977,9 +1615,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="17.55" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1006,9 +1644,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="17.55" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -1035,9 +1673,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="17.55" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>9</v>
@@ -1064,9 +1702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="17.55" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -1093,9 +1731,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="17.55" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -1123,7 +1761,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>order</t>
   </si>
   <si>
+    <t>O0</t>
+  </si>
+  <si>
     <t>O1</t>
   </si>
   <si>
@@ -36,46 +39,25 @@
     <t>O5</t>
   </si>
   <si>
-    <t>O6</t>
-  </si>
-  <si>
-    <t>O7</t>
-  </si>
-  <si>
-    <t>J1  </t>
-  </si>
-  <si>
-    <t>J2  </t>
-  </si>
-  <si>
-    <t>J3  </t>
-  </si>
-  <si>
-    <t>J4  </t>
-  </si>
-  <si>
-    <t>J5  </t>
-  </si>
-  <si>
-    <t>J6  </t>
+    <t>J0</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t> J2  </t>
-  </si>
-  <si>
-    <t> J3  </t>
-  </si>
-  <si>
-    <t> J4  </t>
-  </si>
-  <si>
-    <t> J5  </t>
-  </si>
-  <si>
-    <t> J6  </t>
   </si>
   <si>
     <t>M0</t>
@@ -1057,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1068,7 +1050,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,16 +1072,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" ht="17.55" customHeight="1" spans="1:11">
+    </row>
+    <row r="2" ht="17.55" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1119,16 +1098,13 @@
       <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
-        <v>6</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" ht="17.55" customHeight="1" spans="1:11">
+    </row>
+    <row r="3" ht="17.55" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1148,16 +1124,13 @@
       <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" ht="17.55" customHeight="1" spans="1:11">
+    </row>
+    <row r="4" ht="17.55" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1177,16 +1150,13 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
-        <v>6</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" ht="17.55" customHeight="1" spans="1:11">
+    </row>
+    <row r="5" ht="17.55" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1206,16 +1176,13 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
-        <v>6</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" ht="17.55" customHeight="1" spans="1:11">
+    </row>
+    <row r="6" ht="17.55" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1235,16 +1202,13 @@
       <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>6</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" ht="17.55" customHeight="1" spans="1:11">
+    </row>
+    <row r="7" ht="17.55" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1264,12 +1228,9 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,14 +1245,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1318,7 +1279,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1345,7 +1306,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>8</v>
@@ -1372,7 +1333,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -1399,7 +1360,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -1426,7 +1387,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
@@ -1453,7 +1414,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1490,7 +1451,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09166666666667" defaultRowHeight="17.6"/>
@@ -1501,36 +1462,36 @@
   <sheetData>
     <row r="1" ht="17.55" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.55" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1559,7 +1520,7 @@
     </row>
     <row r="3" ht="17.55" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -1588,7 +1549,7 @@
     </row>
     <row r="4" ht="17.55" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>6</v>
@@ -1617,7 +1578,7 @@
     </row>
     <row r="5" ht="17.55" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1646,7 +1607,7 @@
     </row>
     <row r="6" ht="17.55" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -1675,7 +1636,7 @@
     </row>
     <row r="7" ht="17.55" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>9</v>
@@ -1704,7 +1665,7 @@
     </row>
     <row r="8" ht="17.55" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -1733,7 +1694,7 @@
     </row>
     <row r="9" ht="17.55" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>

--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13660"/>
+    <workbookView windowWidth="27660" windowHeight="13660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1041,7 +1041,7 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09166666666667" defaultRowHeight="17.6"/>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -1599,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1">
         <v>9</v>
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>9</v>

--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1154,7 +1154,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" ht="17.55" customHeight="1" spans="1:10">
+    <row r="5" ht="16" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09166666666667" defaultRowHeight="17.6"/>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>9</v>
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>

--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQi0427\PycharmProjects\jspagv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABD7D0-317F-41FF-B109-C67AEB371B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13660" activeTab="2"/>
+    <workbookView xWindow="-21420" yWindow="780" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -87,14 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,352 +109,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -462,251 +132,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,61 +149,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1033,24 +417,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +460,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="17.55" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +486,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="17.55" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +512,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" ht="17.55" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +538,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +564,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="17.55" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,7 +590,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" ht="17.55" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1233,24 +617,23 @@
       <c r="J7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +660,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +687,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +714,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +741,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +768,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +795,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1440,27 +823,24 @@
       <c r="K7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09166666666667" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.09166666666667" style="1"/>
+    <col min="10" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="17.55" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -1518,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="17.55" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="17.55" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="17.55" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1605,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="17.55" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="17.55" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="17.55" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1677,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1692,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="17.55" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>9</v>
@@ -1722,7 +1102,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQi0427\PycharmProjects\jspagv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABD7D0-317F-41FF-B109-C67AEB371B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21420" yWindow="780" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27660" windowHeight="13660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -93,8 +87,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,22 +109,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,9 +462,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -149,17 +721,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,24 +1033,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +1076,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="17.55" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,7 +1102,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="17.55" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -512,7 +1128,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="17.55" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,7 +1154,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="16" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -564,7 +1180,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="17.55" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -590,7 +1206,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="17.55" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -617,23 +1233,24 @@
       <c r="J7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -660,7 +1277,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,7 +1304,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -714,7 +1331,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -741,7 +1358,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -768,7 +1385,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -795,7 +1412,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,24 +1440,27 @@
       <c r="K7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.09166666666667" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="1"/>
+    <col min="10" max="16384" width="9.09166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="17.55" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -869,7 +1489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="17.55" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -898,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="17.55" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -927,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="17.55" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -956,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="17.55" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -985,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="17.55" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="17.55" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="17.55" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1072,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="17.55" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1102,7 +1722,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JSP_dataset_ft06.xlsx
+++ b/JSP_dataset_ft06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13660" activeTab="2"/>
+    <workbookView windowWidth="27660" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1244,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1450,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
